--- a/TestData/Production/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -724,8 +727,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A32">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -742,7 +745,8 @@
     <col min="13" max="13" width="28.71" style="1" customWidth="1"/>
     <col min="14" max="15" width="10.71" style="1" customWidth="1"/>
     <col min="16" max="16" width="30.57" style="1" customWidth="1"/>
-    <col min="17" max="19" width="19.14" style="1" customWidth="1"/>
+    <col min="17" max="18" width="19.14" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.57" style="1" customWidth="1"/>
     <col min="20" max="20" width="36.25" style="2" customWidth="1"/>
     <col min="21" max="22" width="22.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="23.93" style="1" customWidth="1"/>
@@ -807,1224 +811,1296 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>1234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5">
         <v>45384</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S2" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45384</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
+      <c r="S3" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>1234</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5">
         <v>45384</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="S4" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>1234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3">
         <v>123456</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="5">
         <v>45384</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S5" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3">
         <v>1234</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" s="5">
         <v>45384</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S6" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3">
         <v>1234</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="5">
         <v>45384</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S7" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>1234</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="5">
         <v>45384</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S8" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3">
         <v>1234</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
         <v>123456</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" s="5">
         <v>45384</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S9" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3">
         <v>1234</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
         <v>123456</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" s="5">
         <v>45384</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S10" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3">
         <v>1234</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5">
         <v>45384</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S11" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
         <v>1234</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" s="5">
         <v>45384</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S12" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>1234</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="5">
         <v>45384</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S13" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
         <v>1234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" s="5">
         <v>45384</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S14" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45384</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1234</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="Q15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S15" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3">
         <v>1234</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" s="5">
         <v>45384</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="S16" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
         <v>1234</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" s="5">
         <v>45384</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S17" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
         <v>1234</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3">
         <v>123456</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" s="5">
         <v>45384</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S18" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>1234</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3">
         <v>123456</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" s="5">
         <v>45384</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="S19" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>1234</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3">
         <v>123456</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L20" s="5">
         <v>45384</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S20" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3">
         <v>1234</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3">
         <v>123456</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L21" s="5">
         <v>45384</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S21" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>1234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" s="5">
         <v>45384</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S22" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>1234</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" s="5">
         <v>45384</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S23" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3">
         <v>1234</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" s="5">
         <v>45384</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="S24" s="3">
+        <v>9874563285</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2033,267 +2109,282 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3">
         <v>1234</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3">
         <v>123456</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L25" s="5">
         <v>45384</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S25" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3">
         <v>1234</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3">
         <v>123456</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="5">
         <v>45384</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S26" s="3">
+        <v>9874563203</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3">
         <v>1234</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3">
         <v>123456</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27" s="5">
         <v>45384</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S27" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3">
         <v>1234</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3">
         <v>123456</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28" s="5">
         <v>45384</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S28" s="3">
+        <v>9865742358</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3">
         <v>1234</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3">
         <v>123456</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L29" s="5">
         <v>45384</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S29" s="3">
+        <v>7896541238</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -2302,55 +2393,58 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3">
         <v>1234</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3">
         <v>123456</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L30" s="5">
         <v>45384</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S30" s="3">
+        <v>9865742358</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -2359,55 +2453,58 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3">
         <v>1234</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F31" s="3">
         <v>123456</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" s="5">
         <v>45384</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S31" s="3">
+        <v>7896541238</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -2416,55 +2513,58 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3">
         <v>1234</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3">
         <v>123456</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" s="5">
         <v>45384</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="S32" s="3">
+        <v>9865742358</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -2473,55 +2573,58 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3">
         <v>1234</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3">
         <v>123456</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L33" s="5">
         <v>45384</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="S33" s="3">
+        <v>9865742358</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -2530,163 +2633,172 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3">
         <v>1234</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3">
         <v>123456</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L34" s="5">
         <v>45384</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S34" s="3">
+        <v>9874563203</v>
       </c>
       <c r="W34" s="2"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3">
         <v>1234</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="3">
         <v>123456</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L35" s="5">
         <v>45384</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S35" s="3">
+        <v>9874563285</v>
       </c>
       <c r="W35" s="2"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3">
         <v>1234</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="3">
         <v>123456</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L36" s="5">
         <v>45384</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S36" s="3">
+        <v>7896532896</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -2694,108 +2806,114 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3">
         <v>1234</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="3">
         <v>123456</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L37" s="5">
         <v>45384</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S37" s="3">
+        <v>7896325698</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3">
         <v>1234</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="3">
         <v>123456</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L38" s="5">
         <v>45384</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S38" s="3">
+        <v>7896532896</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
@@ -2804,479 +2922,506 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3">
         <v>1234</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3">
         <v>123456</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L39" s="5">
         <v>45384</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S39" s="3">
+        <v>7896325698</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3">
         <v>1234</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="3">
         <v>123456</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L40" s="5">
         <v>45384</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="S40" s="3">
+        <v>7896532896</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3">
         <v>1234</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="3">
         <v>123456</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L41" s="5">
         <v>45384</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="S41" s="3">
+        <v>7896532896</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3">
         <v>1234</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="3">
         <v>123456</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L42" s="5">
         <v>45384</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="S42" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3">
         <v>1234</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" s="3">
         <v>123456</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L43" s="5">
         <v>45384</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="S43" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" s="3">
         <v>1234</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="3">
         <v>123456</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L44" s="5">
         <v>45384</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S44" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3">
         <v>1234</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" s="3">
         <v>123456</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L45" s="5">
         <v>45384</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S45" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="3">
         <v>1234</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="3">
         <v>123456</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L46" s="5">
         <v>45384</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S46" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" s="3">
         <v>1234</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="3">
         <v>123456</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L47" s="5">
         <v>45384</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="S47" s="3">
+        <v>9874563285</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -3290,6 +3435,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
+      <c r="S48" s="3"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="3"/>
@@ -3302,6 +3448,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
+      <c r="S49" s="3"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="3"/>
@@ -3314,6 +3461,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
+      <c r="S50" s="3"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="3"/>
@@ -3326,6 +3474,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
+      <c r="S51" s="3"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="3"/>
@@ -3338,6 +3487,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
+      <c r="S52" s="3"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="3"/>
@@ -3350,6 +3500,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
+      <c r="S53" s="3"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="3"/>
@@ -3362,6 +3513,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
+      <c r="S54" s="3"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="3"/>
@@ -3374,6 +3526,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
+      <c r="S55" s="3"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="3"/>
@@ -3386,6 +3539,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
+      <c r="S56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="3"/>
@@ -3398,6 +3552,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
+      <c r="S57" s="3"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="3"/>
@@ -3410,6 +3565,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
+      <c r="S58" s="3"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="3"/>
@@ -3422,6 +3578,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
+      <c r="S59" s="3"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="3"/>
@@ -3434,6 +3591,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
+      <c r="S60" s="3"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="3"/>
@@ -3446,6 +3604,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
+      <c r="S61" s="3"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="3"/>
@@ -3458,6 +3617,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
+      <c r="S62" s="3"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="3"/>
@@ -3470,6 +3630,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
+      <c r="S63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7479166" right="0.7479166" top="0.9840278" bottom="0.9840278" header="0.5118055" footer="0.5118055"/>

--- a/TestData/Production/Web_POS/Billing/manual_discount_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/manual_discount_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -326,6 +326,12 @@
     <t>TC_39</t>
   </si>
   <si>
+    <t>Custom_Discount_Percentage : 99</t>
+  </si>
+  <si>
+    <t>Percentage : 99</t>
+  </si>
+  <si>
     <t>TC_40</t>
   </si>
   <si>
@@ -360,9 +366,6 @@
   </si>
   <si>
     <t>TC_45</t>
-  </si>
-  <si>
-    <t>307260624P3E</t>
   </si>
   <si>
     <t>TC_46</t>
@@ -375,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -395,13 +398,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -446,11 +442,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -472,7 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +722,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A25">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -1313,7 +1308,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S10" s="3">
         <v>9874563285</v>
@@ -3023,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="S40" s="3">
         <v>7896532896</v>
@@ -3034,7 +3029,7 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>94</v>
@@ -3079,10 +3074,10 @@
         <v>30</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S41" s="3">
         <v>7896532896</v>
@@ -3090,7 +3085,7 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>20</v>
@@ -3135,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S42" s="3">
         <v>9874563285</v>
@@ -3146,7 +3141,7 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>20</v>
@@ -3191,10 +3186,10 @@
         <v>30</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S43" s="3">
         <v>9874563285</v>
@@ -3202,7 +3197,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>20</v>
@@ -3258,7 +3253,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>20</v>
@@ -3314,10 +3309,10 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>21</v>
@@ -3370,10 +3365,10 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>21</v>
